--- a/請求書.xlsx
+++ b/請求書.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h_ikuma/PycharmProjects/cursor_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h_ikuma/Desktop/cursor_excel_py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDFE81C-91A1-FC4C-9C42-927464A08004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADC0E4A-32E0-ED40-B69C-CDB6F1560EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="500" windowWidth="19380" windowHeight="20980" xr2:uid="{39A39F85-0233-405B-A3C0-3849DABDD8BB}"/>
+    <workbookView xWindow="15040" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{39A39F85-0233-405B-A3C0-3849DABDD8BB}"/>
   </bookViews>
   <sheets>
-    <sheet name="請求書(完成)" sheetId="9" r:id="rId1"/>
+    <sheet name="請求書(サンプル)" sheetId="10" r:id="rId1"/>
+    <sheet name="請求書(原紙)" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'請求書(完成)'!$19:$19</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'請求書(サンプル)'!$19:$19</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'請求書(原紙)'!$19:$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>○○県○○○○市○○○○ x-x</t>
     <rPh sb="2" eb="3">
@@ -324,6 +326,107 @@
       <t>ガク</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>test14</t>
+  </si>
+  <si>
+    <t>test15</t>
+  </si>
+  <si>
+    <t>test16</t>
+  </si>
+  <si>
+    <t>test17</t>
+  </si>
+  <si>
+    <t>test18</t>
+  </si>
+  <si>
+    <t>test19</t>
+  </si>
+  <si>
+    <t>test20</t>
+  </si>
+  <si>
+    <t>test21</t>
+  </si>
+  <si>
+    <t>test22</t>
+  </si>
+  <si>
+    <t>test23</t>
+  </si>
+  <si>
+    <t>test24</t>
+  </si>
+  <si>
+    <t>test25</t>
+  </si>
+  <si>
+    <t>test26</t>
+  </si>
+  <si>
+    <t>test27</t>
+  </si>
+  <si>
+    <t>test28</t>
+  </si>
+  <si>
+    <t>test29</t>
+  </si>
+  <si>
+    <t>test30</t>
+  </si>
+  <si>
+    <t>test31</t>
+  </si>
+  <si>
+    <t>test32</t>
+  </si>
+  <si>
+    <t>test33</t>
   </si>
 </sst>
 </file>
@@ -398,7 +501,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -603,6 +706,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -614,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,9 +828,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -682,9 +847,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -734,6 +896,36 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1071,15 +1263,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C108BBF8-F08B-4F4C-97ED-E537BC4A9C0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E835BF4E-4343-D747-9D21-5448467A5F1C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J41"/>
+  <dimension ref="A2:J58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
@@ -1113,7 +1303,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>22</v>
       </c>
       <c r="H6" t="s">
@@ -1160,58 +1350,58 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36" t="s">
+      <c r="D16" s="34"/>
+      <c r="E16" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36" t="s">
+      <c r="F16" s="34"/>
+      <c r="G16" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36" t="s">
+      <c r="H16" s="34"/>
+      <c r="I16" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="36"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38">
-        <f>H36</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="37">
-        <f>H37</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="39">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36">
+        <f>H53</f>
+        <v>12529</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="35">
+        <f>H54</f>
+        <v>1252</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="37">
         <f>SUM(E17:H17)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="39"/>
+        <v>13781</v>
+      </c>
+      <c r="J17" s="37"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1221,266 +1411,1275 @@
       <c r="H19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="35"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="3"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
+      <c r="B20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" ref="H20:H52" si="0">F20*G20</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3"/>
+      <c r="B21" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3"/>
+      <c r="B22" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>3</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3"/>
+      <c r="B23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4">
+        <v>4</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3"/>
+      <c r="B24" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="4">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>5</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3"/>
+      <c r="B25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="4">
+        <v>6</v>
+      </c>
+      <c r="G25" s="4">
+        <v>6</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3"/>
+      <c r="B26" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="4">
+        <v>7</v>
+      </c>
+      <c r="G26" s="4">
+        <v>7</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" ref="H26:H48" si="1">F26*G26</f>
+        <v>49</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3"/>
+      <c r="B27" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="4">
+        <v>8</v>
+      </c>
+      <c r="G27" s="4">
+        <v>8</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="I27" s="23"/>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="3"/>
+      <c r="B28" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="4">
+        <v>9</v>
+      </c>
+      <c r="G28" s="4">
+        <v>9</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="25"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="3"/>
+      <c r="B29" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="4">
+        <v>10</v>
+      </c>
+      <c r="G29" s="4">
+        <v>10</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3"/>
+      <c r="B30" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="4">
+        <v>11</v>
+      </c>
+      <c r="G30" s="4">
+        <v>11</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="3"/>
+      <c r="B31" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="4">
+        <v>12</v>
+      </c>
+      <c r="G31" s="4">
+        <v>12</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="I31" s="21"/>
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3"/>
+      <c r="B32" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="4">
+        <v>13</v>
+      </c>
+      <c r="G32" s="4">
+        <v>13</v>
+      </c>
+      <c r="H32" s="20">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="25"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3"/>
+      <c r="B33" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="4">
+        <v>14</v>
+      </c>
+      <c r="G33" s="4">
+        <v>14</v>
+      </c>
+      <c r="H33" s="20">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="I33" s="23"/>
+      <c r="J33" s="25"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="3"/>
+      <c r="B34" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="4">
+        <v>15</v>
+      </c>
+      <c r="G34" s="4">
+        <v>15</v>
+      </c>
+      <c r="H34" s="20">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="J34" s="25"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="3"/>
+      <c r="B35" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="4">
+        <v>16</v>
+      </c>
+      <c r="G35" s="4">
+        <v>16</v>
+      </c>
+      <c r="H35" s="20">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="I35" s="23"/>
+      <c r="J35" s="25"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="3"/>
+      <c r="B36" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="4">
+        <v>17</v>
+      </c>
+      <c r="G36" s="4">
+        <v>17</v>
+      </c>
+      <c r="H36" s="20">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+      <c r="I36" s="23"/>
+      <c r="J36" s="25"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="3"/>
+      <c r="B37" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="4">
+        <v>18</v>
+      </c>
+      <c r="G37" s="4">
+        <v>18</v>
+      </c>
+      <c r="H37" s="20">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="I37" s="21"/>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="3"/>
+      <c r="B38" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="4">
+        <v>19</v>
+      </c>
+      <c r="G38" s="4">
+        <v>19</v>
+      </c>
+      <c r="H38" s="20">
+        <f t="shared" si="1"/>
+        <v>361</v>
+      </c>
+      <c r="I38" s="21"/>
+      <c r="J38" s="22"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="3"/>
+      <c r="B39" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="4">
+        <v>20</v>
+      </c>
+      <c r="G39" s="4">
+        <v>20</v>
+      </c>
+      <c r="H39" s="20">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="I39" s="21"/>
+      <c r="J39" s="22"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="3"/>
+      <c r="B40" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="4">
+        <v>21</v>
+      </c>
+      <c r="G40" s="4">
+        <v>21</v>
+      </c>
+      <c r="H40" s="20">
+        <f t="shared" si="1"/>
+        <v>441</v>
+      </c>
+      <c r="I40" s="23"/>
+      <c r="J40" s="25"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="3"/>
+      <c r="B41" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="4">
+        <v>22</v>
+      </c>
+      <c r="G41" s="4">
+        <v>22</v>
+      </c>
+      <c r="H41" s="20">
+        <f t="shared" si="1"/>
+        <v>484</v>
+      </c>
+      <c r="I41" s="23"/>
+      <c r="J41" s="25"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="3"/>
+      <c r="B42" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="4">
+        <v>23</v>
+      </c>
+      <c r="G42" s="4">
+        <v>23</v>
+      </c>
+      <c r="H42" s="20">
+        <f t="shared" si="1"/>
+        <v>529</v>
+      </c>
+      <c r="I42" s="23"/>
+      <c r="J42" s="25"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="3"/>
+      <c r="B43" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="4">
+        <v>24</v>
+      </c>
+      <c r="G43" s="4">
+        <v>24</v>
+      </c>
+      <c r="H43" s="20">
+        <f t="shared" si="1"/>
+        <v>576</v>
+      </c>
+      <c r="I43" s="23"/>
+      <c r="J43" s="25"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="3"/>
+      <c r="B44" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="4">
+        <v>25</v>
+      </c>
+      <c r="G44" s="4">
+        <v>25</v>
+      </c>
+      <c r="H44" s="20">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+      <c r="I44" s="23"/>
+      <c r="J44" s="25"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="3"/>
+      <c r="B45" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="4">
+        <v>26</v>
+      </c>
+      <c r="G45" s="4">
+        <v>26</v>
+      </c>
+      <c r="H45" s="20">
+        <f t="shared" si="1"/>
+        <v>676</v>
+      </c>
+      <c r="I45" s="23"/>
+      <c r="J45" s="25"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="3"/>
+      <c r="B46" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="4">
+        <v>27</v>
+      </c>
+      <c r="G46" s="4">
+        <v>27</v>
+      </c>
+      <c r="H46" s="20">
+        <f t="shared" si="1"/>
+        <v>729</v>
+      </c>
+      <c r="I46" s="21"/>
+      <c r="J46" s="22"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="3"/>
+      <c r="B47" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="4">
+        <v>28</v>
+      </c>
+      <c r="G47" s="4">
+        <v>28</v>
+      </c>
+      <c r="H47" s="20">
+        <f t="shared" si="1"/>
+        <v>784</v>
+      </c>
+      <c r="I47" s="21"/>
+      <c r="J47" s="22"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="3"/>
+      <c r="B48" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="4">
+        <v>29</v>
+      </c>
+      <c r="G48" s="4">
+        <v>29</v>
+      </c>
+      <c r="H48" s="20">
+        <f t="shared" si="1"/>
+        <v>841</v>
+      </c>
+      <c r="I48" s="21"/>
+      <c r="J48" s="22"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="3"/>
+      <c r="B49" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="4">
+        <v>30</v>
+      </c>
+      <c r="G49" s="4">
+        <v>30</v>
+      </c>
+      <c r="H49" s="20">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="I49" s="23"/>
+      <c r="J49" s="25"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="3"/>
+      <c r="B50" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="4">
+        <v>31</v>
+      </c>
+      <c r="G50" s="4">
+        <v>31</v>
+      </c>
+      <c r="H50" s="20">
+        <f t="shared" si="0"/>
+        <v>961</v>
+      </c>
+      <c r="I50" s="23"/>
+      <c r="J50" s="25"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="3"/>
+      <c r="B51" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="4">
+        <v>32</v>
+      </c>
+      <c r="G51" s="4">
+        <v>32</v>
+      </c>
+      <c r="H51" s="20">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="I51" s="23"/>
+      <c r="J51" s="25"/>
+    </row>
+    <row r="52" spans="1:10" ht="19" thickBot="1">
+      <c r="A52" s="46"/>
+      <c r="B52" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="4">
+        <v>33</v>
+      </c>
+      <c r="G52" s="4">
+        <v>33</v>
+      </c>
+      <c r="H52" s="20">
+        <f t="shared" si="0"/>
+        <v>1089</v>
+      </c>
+      <c r="I52" s="38"/>
+      <c r="J52" s="40"/>
+    </row>
+    <row r="53" spans="1:10" ht="19" thickTop="1">
+      <c r="A53" s="16"/>
+      <c r="B53" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="18">
+        <f>SUM(H20:H52)</f>
+        <v>12529</v>
+      </c>
+      <c r="I53" s="28"/>
+      <c r="J53" s="30"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="3"/>
+      <c r="B54" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="5">
+        <f>INT(H53*0.1)</f>
+        <v>1252</v>
+      </c>
+      <c r="I54" s="23"/>
+      <c r="J54" s="25"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J57" s="11"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="73">
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="I53:J53"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:H54" xr:uid="{5E5AC63D-54C4-244E-88F7-5256B3E67574}"/>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R発行日 &amp;D</oddHeader>
+    <oddFooter>&amp;R&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C108BBF8-F08B-4F4C-97ED-E537BC4A9C0F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:J41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="33">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="19"/>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36">
+        <f>H36</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="35">
+        <f>H37</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="37">
+        <f>SUM(E17:H17)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="37"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="27"/>
+      <c r="H20" s="20">
+        <f t="shared" ref="H20:H22" si="0">F20*G20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="27"/>
+      <c r="H21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="3"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="27"/>
+      <c r="H22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="21">
-        <f t="shared" ref="H23:H35" si="0">F23*G23</f>
+      <c r="H23" s="20">
+        <f t="shared" ref="H23:H35" si="1">F23*G23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="27"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="3"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="21">
-        <f t="shared" si="0"/>
+      <c r="H24" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="27"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="21">
-        <f t="shared" si="0"/>
+      <c r="H25" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="27"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="25"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="3"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="21">
-        <f t="shared" si="0"/>
+      <c r="H26" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="27"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="3"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="21">
-        <f t="shared" si="0"/>
+      <c r="H27" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="27"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="25"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="21">
-        <f t="shared" si="0"/>
+      <c r="H28" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="27"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="25"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="24"/>
+      <c r="H29" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="24"/>
+      <c r="H30" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="24"/>
+      <c r="H31" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="21"/>
+      <c r="J31" s="22"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="21">
-        <f t="shared" si="0"/>
+      <c r="H32" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="27"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="21">
-        <f t="shared" si="0"/>
+      <c r="H33" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="27"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="3"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="21">
-        <f t="shared" si="0"/>
+      <c r="H34" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="27"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:10" ht="19" thickBot="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="21">
-        <f t="shared" si="0"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" ht="19" thickTop="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19">
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18">
         <f>SUM(H20:H35)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="32"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="30"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="3"/>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="5">
         <f>INT(H36*0.1)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="25"/>
-      <c r="J37" s="27"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="25"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="7" t="s">
@@ -1515,37 +2714,10 @@
       <c r="J41" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="I25:J25"/>
+  <mergeCells count="45">
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="B32:E32"/>
@@ -1558,6 +2730,36 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">

--- a/請求書.xlsx
+++ b/請求書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h_ikuma/Desktop/cursor_excel_py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADC0E4A-32E0-ED40-B69C-CDB6F1560EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92418289-04E9-A74F-B3C4-4AC002102771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15040" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{39A39F85-0233-405B-A3C0-3849DABDD8BB}"/>
+    <workbookView xWindow="15040" yWindow="500" windowWidth="30080" windowHeight="33340" activeTab="1" xr2:uid="{39A39F85-0233-405B-A3C0-3849DABDD8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書(サンプル)" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>○○県○○○○市○○○○ x-x</t>
     <rPh sb="2" eb="3">
@@ -427,6 +427,10 @@
   </si>
   <si>
     <t>test33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">課税対象額(10%)			</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -501,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -721,52 +725,13 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -782,7 +747,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,35 +811,32 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -885,17 +847,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -903,28 +862,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1269,7 +1213,9 @@
   </sheetPr>
   <dimension ref="A2:J58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:E53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
@@ -1350,58 +1296,58 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34" t="s">
+      <c r="D16" s="29"/>
+      <c r="E16" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34" t="s">
+      <c r="F16" s="29"/>
+      <c r="G16" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34" t="s">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="34"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27">
         <f>H53</f>
         <v>12529</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="35">
+      <c r="F17" s="27"/>
+      <c r="G17" s="26">
         <f>H54</f>
         <v>1252</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="37">
+      <c r="H17" s="26"/>
+      <c r="I17" s="28">
         <f>SUM(E17:H17)</f>
         <v>13781</v>
       </c>
-      <c r="J17" s="37"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1411,19 +1357,21 @@
       <c r="H19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="33"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3">
+        <v>45870</v>
+      </c>
       <c r="B20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="4">
         <v>1</v>
       </c>
@@ -1435,16 +1383,18 @@
         <v>1</v>
       </c>
       <c r="I20" s="23"/>
-      <c r="J20" s="25"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3">
+        <v>45871</v>
+      </c>
       <c r="B21" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="4">
         <v>2</v>
       </c>
@@ -1456,16 +1406,18 @@
         <v>4</v>
       </c>
       <c r="I21" s="23"/>
-      <c r="J21" s="25"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3">
+        <v>45872</v>
+      </c>
       <c r="B22" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="4">
         <v>3</v>
       </c>
@@ -1477,16 +1429,18 @@
         <v>9</v>
       </c>
       <c r="I22" s="23"/>
-      <c r="J22" s="25"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3">
+        <v>45873</v>
+      </c>
       <c r="B23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="4">
         <v>4</v>
       </c>
@@ -1498,16 +1452,18 @@
         <v>16</v>
       </c>
       <c r="I23" s="23"/>
-      <c r="J23" s="25"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3">
+        <v>45874</v>
+      </c>
       <c r="B24" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="4">
         <v>5</v>
       </c>
@@ -1519,16 +1475,18 @@
         <v>25</v>
       </c>
       <c r="I24" s="23"/>
-      <c r="J24" s="25"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3">
+        <v>45875</v>
+      </c>
       <c r="B25" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="4">
         <v>6</v>
       </c>
@@ -1540,16 +1498,18 @@
         <v>36</v>
       </c>
       <c r="I25" s="23"/>
-      <c r="J25" s="25"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="3"/>
+      <c r="A26" s="3">
+        <v>45876</v>
+      </c>
       <c r="B26" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="4">
         <v>7</v>
       </c>
@@ -1561,16 +1521,18 @@
         <v>49</v>
       </c>
       <c r="I26" s="23"/>
-      <c r="J26" s="25"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3">
+        <v>45877</v>
+      </c>
       <c r="B27" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="4">
         <v>8</v>
       </c>
@@ -1582,16 +1544,18 @@
         <v>64</v>
       </c>
       <c r="I27" s="23"/>
-      <c r="J27" s="25"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3">
+        <v>45878</v>
+      </c>
       <c r="B28" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="4">
         <v>9</v>
       </c>
@@ -1603,16 +1567,18 @@
         <v>81</v>
       </c>
       <c r="I28" s="23"/>
-      <c r="J28" s="25"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3">
+        <v>45879</v>
+      </c>
       <c r="B29" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="4">
         <v>10</v>
       </c>
@@ -1623,17 +1589,19 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3">
+        <v>45880</v>
+      </c>
       <c r="B30" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="4">
         <v>11</v>
       </c>
@@ -1644,17 +1612,19 @@
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3">
+        <v>45881</v>
+      </c>
       <c r="B31" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="4">
         <v>12</v>
       </c>
@@ -1665,17 +1635,19 @@
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3">
+        <v>45882</v>
+      </c>
       <c r="B32" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="4">
         <v>13</v>
       </c>
@@ -1687,16 +1659,18 @@
         <v>169</v>
       </c>
       <c r="I32" s="23"/>
-      <c r="J32" s="25"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3">
+        <v>45883</v>
+      </c>
       <c r="B33" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="4">
         <v>14</v>
       </c>
@@ -1708,16 +1682,18 @@
         <v>196</v>
       </c>
       <c r="I33" s="23"/>
-      <c r="J33" s="25"/>
+      <c r="J33" s="24"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3">
+        <v>45884</v>
+      </c>
       <c r="B34" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="4">
         <v>15</v>
       </c>
@@ -1729,16 +1705,18 @@
         <v>225</v>
       </c>
       <c r="I34" s="23"/>
-      <c r="J34" s="25"/>
+      <c r="J34" s="24"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3">
+        <v>45885</v>
+      </c>
       <c r="B35" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="4">
         <v>16</v>
       </c>
@@ -1750,16 +1728,18 @@
         <v>256</v>
       </c>
       <c r="I35" s="23"/>
-      <c r="J35" s="25"/>
+      <c r="J35" s="24"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3">
+        <v>45886</v>
+      </c>
       <c r="B36" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="4">
         <v>17</v>
       </c>
@@ -1771,16 +1751,18 @@
         <v>289</v>
       </c>
       <c r="I36" s="23"/>
-      <c r="J36" s="25"/>
+      <c r="J36" s="24"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3">
+        <v>45887</v>
+      </c>
       <c r="B37" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="4">
         <v>18</v>
       </c>
@@ -1791,17 +1773,19 @@
         <f t="shared" si="1"/>
         <v>324</v>
       </c>
-      <c r="I37" s="21"/>
-      <c r="J37" s="22"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="3"/>
+      <c r="A38" s="3">
+        <v>45888</v>
+      </c>
       <c r="B38" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="4">
         <v>19</v>
       </c>
@@ -1812,17 +1796,19 @@
         <f t="shared" si="1"/>
         <v>361</v>
       </c>
-      <c r="I38" s="21"/>
-      <c r="J38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="24"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="3"/>
+      <c r="A39" s="3">
+        <v>45889</v>
+      </c>
       <c r="B39" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="4">
         <v>20</v>
       </c>
@@ -1833,17 +1819,19 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="22"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="3"/>
+      <c r="A40" s="3">
+        <v>45890</v>
+      </c>
       <c r="B40" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="4">
         <v>21</v>
       </c>
@@ -1855,16 +1843,18 @@
         <v>441</v>
       </c>
       <c r="I40" s="23"/>
-      <c r="J40" s="25"/>
+      <c r="J40" s="24"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="3"/>
+      <c r="A41" s="3">
+        <v>45891</v>
+      </c>
       <c r="B41" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="4">
         <v>22</v>
       </c>
@@ -1876,16 +1866,18 @@
         <v>484</v>
       </c>
       <c r="I41" s="23"/>
-      <c r="J41" s="25"/>
+      <c r="J41" s="24"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="3"/>
+      <c r="A42" s="3">
+        <v>45892</v>
+      </c>
       <c r="B42" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="4">
         <v>23</v>
       </c>
@@ -1897,16 +1889,18 @@
         <v>529</v>
       </c>
       <c r="I42" s="23"/>
-      <c r="J42" s="25"/>
+      <c r="J42" s="24"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="3"/>
+      <c r="A43" s="3">
+        <v>45893</v>
+      </c>
       <c r="B43" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="4">
         <v>24</v>
       </c>
@@ -1918,16 +1912,18 @@
         <v>576</v>
       </c>
       <c r="I43" s="23"/>
-      <c r="J43" s="25"/>
+      <c r="J43" s="24"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="3"/>
+      <c r="A44" s="3">
+        <v>45894</v>
+      </c>
       <c r="B44" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="24"/>
       <c r="F44" s="4">
         <v>25</v>
       </c>
@@ -1939,16 +1935,18 @@
         <v>625</v>
       </c>
       <c r="I44" s="23"/>
-      <c r="J44" s="25"/>
+      <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="3"/>
+      <c r="A45" s="3">
+        <v>45895</v>
+      </c>
       <c r="B45" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="24"/>
       <c r="F45" s="4">
         <v>26</v>
       </c>
@@ -1960,16 +1958,18 @@
         <v>676</v>
       </c>
       <c r="I45" s="23"/>
-      <c r="J45" s="25"/>
+      <c r="J45" s="24"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="3"/>
+      <c r="A46" s="3">
+        <v>45896</v>
+      </c>
       <c r="B46" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="24"/>
       <c r="F46" s="4">
         <v>27</v>
       </c>
@@ -1980,17 +1980,19 @@
         <f t="shared" si="1"/>
         <v>729</v>
       </c>
-      <c r="I46" s="21"/>
-      <c r="J46" s="22"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="24"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="3"/>
+      <c r="A47" s="3">
+        <v>45897</v>
+      </c>
       <c r="B47" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="24"/>
       <c r="F47" s="4">
         <v>28</v>
       </c>
@@ -2001,17 +2003,19 @@
         <f t="shared" si="1"/>
         <v>784</v>
       </c>
-      <c r="I47" s="21"/>
-      <c r="J47" s="22"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="24"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="3"/>
+      <c r="A48" s="3">
+        <v>45898</v>
+      </c>
       <c r="B48" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="4">
         <v>29</v>
       </c>
@@ -2022,17 +2026,19 @@
         <f t="shared" si="1"/>
         <v>841</v>
       </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="22"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="24"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="3"/>
+      <c r="A49" s="3">
+        <v>45899</v>
+      </c>
       <c r="B49" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="4">
         <v>30</v>
       </c>
@@ -2044,16 +2050,18 @@
         <v>900</v>
       </c>
       <c r="I49" s="23"/>
-      <c r="J49" s="25"/>
+      <c r="J49" s="24"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="3"/>
+      <c r="A50" s="3">
+        <v>45900</v>
+      </c>
       <c r="B50" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="24"/>
       <c r="F50" s="4">
         <v>31</v>
       </c>
@@ -2065,16 +2073,18 @@
         <v>961</v>
       </c>
       <c r="I50" s="23"/>
-      <c r="J50" s="25"/>
+      <c r="J50" s="24"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="3"/>
+      <c r="A51" s="3">
+        <v>45900</v>
+      </c>
       <c r="B51" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="24"/>
       <c r="F51" s="4">
         <v>32</v>
       </c>
@@ -2086,16 +2096,18 @@
         <v>1024</v>
       </c>
       <c r="I51" s="23"/>
-      <c r="J51" s="25"/>
+      <c r="J51" s="24"/>
     </row>
     <row r="52" spans="1:10" ht="19" thickBot="1">
-      <c r="A52" s="46"/>
+      <c r="A52" s="3">
+        <v>45900</v>
+      </c>
       <c r="B52" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="24"/>
       <c r="F52" s="4">
         <v>33</v>
       </c>
@@ -2106,34 +2118,34 @@
         <f t="shared" si="0"/>
         <v>1089</v>
       </c>
-      <c r="I52" s="38"/>
-      <c r="J52" s="40"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="37"/>
     </row>
     <row r="53" spans="1:10" ht="19" thickTop="1">
       <c r="A53" s="16"/>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="30"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="35"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
       <c r="H53" s="18">
         <f>SUM(H20:H52)</f>
         <v>12529</v>
       </c>
-      <c r="I53" s="28"/>
-      <c r="J53" s="30"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="3"/>
       <c r="B54" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="24"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="5">
@@ -2141,7 +2153,7 @@
         <v>1252</v>
       </c>
       <c r="I54" s="23"/>
-      <c r="J54" s="25"/>
+      <c r="J54" s="24"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="7" t="s">
@@ -2176,53 +2188,23 @@
       <c r="J58" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I27:J27"/>
+  <mergeCells count="82">
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="I51:J51"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="I25:J25"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="B44:E44"/>
@@ -2237,22 +2219,61 @@
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="I40:J40"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:H54" xr:uid="{5E5AC63D-54C4-244E-88F7-5256B3E67574}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -2272,7 +2293,7 @@
   </sheetPr>
   <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
@@ -2343,58 +2364,58 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34" t="s">
+      <c r="D16" s="29"/>
+      <c r="E16" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34" t="s">
+      <c r="F16" s="29"/>
+      <c r="G16" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34" t="s">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="34"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27">
         <f>H36</f>
         <v>0</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="35">
+      <c r="F17" s="27"/>
+      <c r="G17" s="26">
         <f>H37</f>
         <v>0</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="37">
+      <c r="H17" s="26"/>
+      <c r="I17" s="28">
         <f>SUM(E17:H17)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="37"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2404,17 +2425,17 @@
       <c r="H19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="33"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="3"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="20">
@@ -2422,14 +2443,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="23"/>
-      <c r="J20" s="25"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="20">
@@ -2437,14 +2458,14 @@
         <v>0</v>
       </c>
       <c r="I21" s="23"/>
-      <c r="J21" s="25"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="3"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="20">
@@ -2452,14 +2473,14 @@
         <v>0</v>
       </c>
       <c r="I22" s="23"/>
-      <c r="J22" s="25"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="20">
@@ -2467,14 +2488,14 @@
         <v>0</v>
       </c>
       <c r="I23" s="23"/>
-      <c r="J23" s="25"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="3"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="20">
@@ -2482,14 +2503,14 @@
         <v>0</v>
       </c>
       <c r="I24" s="23"/>
-      <c r="J24" s="25"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="20">
@@ -2497,14 +2518,14 @@
         <v>0</v>
       </c>
       <c r="I25" s="23"/>
-      <c r="J25" s="25"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="3"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="20">
@@ -2512,14 +2533,14 @@
         <v>0</v>
       </c>
       <c r="I26" s="23"/>
-      <c r="J26" s="25"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="3"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="20">
@@ -2527,14 +2548,14 @@
         <v>0</v>
       </c>
       <c r="I27" s="23"/>
-      <c r="J27" s="25"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="20">
@@ -2542,59 +2563,59 @@
         <v>0</v>
       </c>
       <c r="I28" s="23"/>
-      <c r="J28" s="25"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3"/>
       <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="20">
@@ -2602,14 +2623,14 @@
         <v>0</v>
       </c>
       <c r="I32" s="23"/>
-      <c r="J32" s="25"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3"/>
       <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="20">
@@ -2617,14 +2638,14 @@
         <v>0</v>
       </c>
       <c r="I33" s="23"/>
-      <c r="J33" s="25"/>
+      <c r="J33" s="24"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="3"/>
       <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="20">
@@ -2632,46 +2653,48 @@
         <v>0</v>
       </c>
       <c r="I34" s="23"/>
-      <c r="J34" s="25"/>
+      <c r="J34" s="24"/>
     </row>
     <row r="35" spans="1:10" ht="19" thickBot="1">
-      <c r="A35" s="46"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="38"/>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="40"/>
-      <c r="F35" s="47"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="20">
+      <c r="H35" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="27"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="40"/>
     </row>
     <row r="36" spans="1:10" ht="19" thickTop="1">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="45"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="18">
         <f>SUM(H20:H35)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="28"/>
-      <c r="J36" s="30"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="35"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="3"/>
       <c r="B37" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="5">
@@ -2679,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="23"/>
-      <c r="J37" s="25"/>
+      <c r="J37" s="24"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="7" t="s">
@@ -2714,10 +2737,37 @@
       <c r="J41" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
+  <mergeCells count="48">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="I25:J25"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="B32:E32"/>
@@ -2730,39 +2780,15 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I34:J34"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="I29:J29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:H37" xr:uid="{60A18750-85A2-4FBC-BB0D-9530948A1BEB}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/請求書.xlsx
+++ b/請求書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h_ikuma/Desktop/cursor_excel_py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7F02AF-9D9C-D944-90D7-DCD994BE510A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198F5D5C-4BD7-AA4E-87BE-AEF549F1C30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15040" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{39A39F85-0233-405B-A3C0-3849DABDD8BB}"/>
   </bookViews>
@@ -796,29 +796,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -833,15 +813,35 @@
     <xf numFmtId="180" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="桁区切り" xfId="3" builtinId="6"/>
@@ -1188,7 +1188,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="9" max="9" width="18" style="33" customWidth="1"/>
+    <col min="9" max="9" width="18" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="33" customHeight="1">
@@ -1264,41 +1264,41 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="27" t="s">
+      <c r="D16" s="40"/>
+      <c r="E16" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="27" t="s">
+      <c r="F16" s="40"/>
+      <c r="G16" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="34"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="28"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="29">
+      <c r="A17" s="41"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="42">
         <f>H51</f>
         <v>248420</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="28">
+      <c r="F17" s="40"/>
+      <c r="G17" s="41">
         <f>H52</f>
         <v>24842</v>
       </c>
-      <c r="H17" s="34"/>
+      <c r="H17" s="40"/>
       <c r="I17" s="20">
         <f>SUM(E17:H17)</f>
         <v>273262</v>
@@ -1308,12 +1308,12 @@
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="34"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="6" t="s">
         <v>47</v>
       </c>
@@ -1331,12 +1331,12 @@
       <c r="A20" s="3">
         <v>45870</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="34"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="4">
         <v>3</v>
       </c>
@@ -1353,12 +1353,12 @@
       <c r="A21" s="3">
         <v>45872</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="34"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="4">
         <v>3</v>
       </c>
@@ -1375,12 +1375,12 @@
       <c r="A22" s="3">
         <v>45872</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="34"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="4">
         <v>3</v>
       </c>
@@ -1397,12 +1397,12 @@
       <c r="A23" s="3">
         <v>45876</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="34"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="4">
         <v>5</v>
       </c>
@@ -1419,12 +1419,12 @@
       <c r="A24" s="3">
         <v>45876</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="34"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="4">
         <v>5</v>
       </c>
@@ -1441,12 +1441,12 @@
       <c r="A25" s="3">
         <v>45876</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="34"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="4">
         <v>3</v>
       </c>
@@ -1463,12 +1463,12 @@
       <c r="A26" s="3">
         <v>45876</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="34"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="4">
         <v>3</v>
       </c>
@@ -1485,12 +1485,12 @@
       <c r="A27" s="3">
         <v>45878</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="34"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="4">
         <v>3</v>
       </c>
@@ -1507,12 +1507,12 @@
       <c r="A28" s="3">
         <v>45878</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="34"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="4">
         <v>5</v>
       </c>
@@ -1529,12 +1529,12 @@
       <c r="A29" s="3">
         <v>45883</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="34"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="4">
         <v>5</v>
       </c>
@@ -1551,12 +1551,12 @@
       <c r="A30" s="3">
         <v>45883</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="34"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="4">
         <v>3</v>
       </c>
@@ -1573,12 +1573,12 @@
       <c r="A31" s="3">
         <v>45883</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="34"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
       <c r="F31" s="4">
         <v>6</v>
       </c>
@@ -1595,12 +1595,12 @@
       <c r="A32" s="3">
         <v>45883</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="34"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="4">
         <v>4</v>
       </c>
@@ -1617,12 +1617,12 @@
       <c r="A33" s="3">
         <v>45883</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="34"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="4">
         <v>3</v>
       </c>
@@ -1639,12 +1639,12 @@
       <c r="A34" s="3">
         <v>45883</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="34"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="4">
         <v>5</v>
       </c>
@@ -1661,12 +1661,12 @@
       <c r="A35" s="21">
         <v>45883</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="37"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="22">
         <v>4</v>
       </c>
@@ -1680,343 +1680,343 @@
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="38">
+      <c r="A36" s="30">
         <v>45883</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42">
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="34">
         <v>6</v>
       </c>
-      <c r="G36" s="42">
+      <c r="G36" s="34">
         <v>1625</v>
       </c>
-      <c r="H36" s="43">
+      <c r="H36" s="35">
         <f>F35*G35</f>
         <v>10240</v>
       </c>
-      <c r="I36" s="44"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="38">
+      <c r="A37" s="30">
         <v>45885</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42">
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="34">
         <v>4</v>
       </c>
-      <c r="G37" s="42">
+      <c r="G37" s="34">
         <v>1970</v>
       </c>
-      <c r="H37" s="43">
+      <c r="H37" s="35">
         <f>F35*G35</f>
         <v>10240</v>
       </c>
-      <c r="I37" s="44"/>
+      <c r="I37" s="31"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="38">
+      <c r="A38" s="30">
         <v>45886</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="42">
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34">
         <v>5</v>
       </c>
-      <c r="G38" s="42">
+      <c r="G38" s="34">
         <v>360</v>
       </c>
-      <c r="H38" s="43">
+      <c r="H38" s="35">
         <f>F35*G35</f>
         <v>10240</v>
       </c>
-      <c r="I38" s="44"/>
+      <c r="I38" s="31"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="38">
+      <c r="A39" s="30">
         <v>45886</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="42">
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34">
         <v>3</v>
       </c>
-      <c r="G39" s="42">
+      <c r="G39" s="34">
         <v>2350</v>
       </c>
-      <c r="H39" s="43">
+      <c r="H39" s="35">
         <f>F35*G35</f>
         <v>10240</v>
       </c>
-      <c r="I39" s="44"/>
+      <c r="I39" s="31"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="38">
+      <c r="A40" s="30">
         <v>45887</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="42">
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34">
         <v>22</v>
       </c>
-      <c r="G40" s="42">
+      <c r="G40" s="34">
         <v>645</v>
       </c>
-      <c r="H40" s="43">
+      <c r="H40" s="35">
         <f>F35*G35</f>
         <v>10240</v>
       </c>
-      <c r="I40" s="44"/>
+      <c r="I40" s="31"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="38">
+      <c r="A41" s="30">
         <v>45893</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="42">
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34">
         <v>4</v>
       </c>
-      <c r="G41" s="42">
+      <c r="G41" s="34">
         <v>1580</v>
       </c>
-      <c r="H41" s="43">
+      <c r="H41" s="35">
         <f>F35*G35</f>
         <v>10240</v>
       </c>
-      <c r="I41" s="44"/>
+      <c r="I41" s="31"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="38">
+      <c r="A42" s="30">
         <v>45893</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="42">
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34">
         <v>5</v>
       </c>
-      <c r="G42" s="42">
+      <c r="G42" s="34">
         <v>1946</v>
       </c>
-      <c r="H42" s="43">
+      <c r="H42" s="35">
         <f>F35*G35</f>
         <v>10240</v>
       </c>
-      <c r="I42" s="44"/>
+      <c r="I42" s="31"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="38">
+      <c r="A43" s="30">
         <v>45895</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="42">
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="34">
         <v>22</v>
       </c>
-      <c r="G43" s="42">
+      <c r="G43" s="34">
         <v>460</v>
       </c>
-      <c r="H43" s="43">
+      <c r="H43" s="35">
         <f>F35*G35</f>
         <v>10240</v>
       </c>
-      <c r="I43" s="44"/>
+      <c r="I43" s="31"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="38">
+      <c r="A44" s="30">
         <v>45897</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="42">
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="34">
         <v>5</v>
       </c>
-      <c r="G44" s="42">
+      <c r="G44" s="34">
         <v>1150</v>
       </c>
-      <c r="H44" s="43">
+      <c r="H44" s="35">
         <f>F35*G35</f>
         <v>10240</v>
       </c>
-      <c r="I44" s="44"/>
+      <c r="I44" s="31"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="38">
+      <c r="A45" s="30">
         <v>45897</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="42">
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="34">
         <v>3</v>
       </c>
-      <c r="G45" s="42">
+      <c r="G45" s="34">
         <v>2730</v>
       </c>
-      <c r="H45" s="43">
+      <c r="H45" s="35">
         <f>F35*G35</f>
         <v>10240</v>
       </c>
-      <c r="I45" s="44"/>
+      <c r="I45" s="31"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="38">
+      <c r="A46" s="30">
         <v>45897</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="42">
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="34">
         <v>3</v>
       </c>
-      <c r="G46" s="42">
+      <c r="G46" s="34">
         <v>720</v>
       </c>
-      <c r="H46" s="43">
+      <c r="H46" s="35">
         <f>F35*G35</f>
         <v>10240</v>
       </c>
-      <c r="I46" s="44"/>
+      <c r="I46" s="31"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="38">
+      <c r="A47" s="30">
         <v>45900</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="42">
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="34">
         <v>5</v>
       </c>
-      <c r="G47" s="42">
+      <c r="G47" s="34">
         <v>870</v>
       </c>
-      <c r="H47" s="43">
+      <c r="H47" s="35">
         <f>F35*G35</f>
         <v>10240</v>
       </c>
-      <c r="I47" s="44"/>
+      <c r="I47" s="31"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="38">
+      <c r="A48" s="30">
         <v>45900</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="42">
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="34">
         <v>5</v>
       </c>
-      <c r="G48" s="42">
+      <c r="G48" s="34">
         <v>900</v>
       </c>
-      <c r="H48" s="43">
+      <c r="H48" s="35">
         <f>F35*G35</f>
         <v>10240</v>
       </c>
-      <c r="I48" s="44"/>
+      <c r="I48" s="31"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="38">
+      <c r="A49" s="30">
         <v>45900</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="42">
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="34">
         <v>5</v>
       </c>
-      <c r="G49" s="42">
+      <c r="G49" s="34">
         <v>1580</v>
       </c>
-      <c r="H49" s="43">
+      <c r="H49" s="35">
         <f>F35*G35</f>
         <v>10240</v>
       </c>
-      <c r="I49" s="44"/>
+      <c r="I49" s="31"/>
     </row>
     <row r="50" spans="1:9" ht="19" thickBot="1">
-      <c r="A50" s="38">
+      <c r="A50" s="30">
         <v>45900</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="42">
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34">
         <v>6</v>
       </c>
-      <c r="G50" s="42">
+      <c r="G50" s="34">
         <v>1946</v>
       </c>
-      <c r="H50" s="43">
+      <c r="H50" s="35">
         <f>F35*G35</f>
         <v>10240</v>
       </c>
-      <c r="I50" s="44"/>
+      <c r="I50" s="31"/>
     </row>
     <row r="51" spans="1:9" ht="19" thickTop="1">
       <c r="A51" s="15"/>
       <c r="B51" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="48"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="37"/>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
       <c r="H51" s="17">
@@ -2030,9 +2030,9 @@
       <c r="B52" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="50"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="28"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="5">
@@ -2073,33 +2073,33 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="1">
@@ -2192,41 +2192,41 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27" t="s">
+      <c r="D16" s="43"/>
+      <c r="E16" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27" t="s">
+      <c r="F16" s="43"/>
+      <c r="G16" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42">
         <f>H36</f>
         <v>0</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="28">
+      <c r="F17" s="42"/>
+      <c r="G17" s="41">
         <f>H37</f>
         <v>0</v>
       </c>
-      <c r="H17" s="28"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="20">
         <f>SUM(E17:H17)</f>
         <v>0</v>
@@ -2236,12 +2236,12 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="19">
@@ -2271,10 +2271,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="19">
@@ -2285,10 +2285,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="19">
@@ -2299,10 +2299,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="19">
@@ -2313,10 +2313,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="19">
@@ -2327,10 +2327,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="19">
@@ -2341,10 +2341,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="19">
@@ -2355,10 +2355,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="19">
@@ -2369,10 +2369,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="19">
@@ -2383,10 +2383,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="19">
@@ -2397,10 +2397,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="19">
@@ -2411,10 +2411,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="19">
@@ -2425,10 +2425,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="19">
@@ -2439,10 +2439,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="19">
@@ -2453,10 +2453,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="19">
@@ -2467,10 +2467,10 @@
     </row>
     <row r="35" spans="1:9" ht="19" thickBot="1">
       <c r="A35" s="21"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="23">
@@ -2481,12 +2481,12 @@
     </row>
     <row r="36" spans="1:9" ht="19" thickTop="1">
       <c r="A36" s="15"/>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="17">
@@ -2497,12 +2497,12 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3"/>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="5">
@@ -2543,15 +2543,14 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B19:E19"/>
@@ -2562,14 +2561,15 @@
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">

--- a/請求書.xlsx
+++ b/請求書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h_ikuma/Desktop/cursor_excel_py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198F5D5C-4BD7-AA4E-87BE-AEF549F1C30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C68044C-D739-8949-9769-711713E3A606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15040" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{39A39F85-0233-405B-A3C0-3849DABDD8BB}"/>
   </bookViews>
@@ -714,7 +714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,25 +810,8 @@
     <xf numFmtId="38" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -839,6 +822,20 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1264,56 +1261,56 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="43" t="s">
+      <c r="D16" s="44"/>
+      <c r="E16" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="43" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="40"/>
+      <c r="H16" s="44"/>
       <c r="I16" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="41"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="42">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="48">
         <f>H51</f>
-        <v>248420</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41">
+        <v>206186</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="43">
         <f>H52</f>
-        <v>24842</v>
-      </c>
-      <c r="H17" s="40"/>
+        <v>20618</v>
+      </c>
+      <c r="H17" s="44"/>
       <c r="I17" s="20">
         <f>SUM(E17:H17)</f>
-        <v>273262</v>
+        <v>226804</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="6" t="s">
         <v>47</v>
       </c>
@@ -1331,12 +1328,12 @@
       <c r="A20" s="3">
         <v>45870</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="4">
         <v>3</v>
       </c>
@@ -1344,7 +1341,7 @@
         <v>2480</v>
       </c>
       <c r="H20" s="19">
-        <f t="shared" ref="H20:H35" si="0">F20*G20</f>
+        <f t="shared" ref="H20:H50" si="0">F20*G20</f>
         <v>7440</v>
       </c>
       <c r="I20" s="24"/>
@@ -1353,12 +1350,12 @@
       <c r="A21" s="3">
         <v>45872</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="4">
         <v>3</v>
       </c>
@@ -1375,12 +1372,12 @@
       <c r="A22" s="3">
         <v>45872</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="4">
         <v>3</v>
       </c>
@@ -1397,12 +1394,12 @@
       <c r="A23" s="3">
         <v>45876</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="4">
         <v>5</v>
       </c>
@@ -1419,12 +1416,12 @@
       <c r="A24" s="3">
         <v>45876</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="4">
         <v>5</v>
       </c>
@@ -1441,12 +1438,12 @@
       <c r="A25" s="3">
         <v>45876</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="44"/>
       <c r="F25" s="4">
         <v>3</v>
       </c>
@@ -1463,12 +1460,12 @@
       <c r="A26" s="3">
         <v>45876</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="4">
         <v>3</v>
       </c>
@@ -1485,12 +1482,12 @@
       <c r="A27" s="3">
         <v>45878</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="44"/>
       <c r="F27" s="4">
         <v>3</v>
       </c>
@@ -1507,12 +1504,12 @@
       <c r="A28" s="3">
         <v>45878</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="44"/>
       <c r="F28" s="4">
         <v>5</v>
       </c>
@@ -1529,12 +1526,12 @@
       <c r="A29" s="3">
         <v>45883</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="44"/>
       <c r="F29" s="4">
         <v>5</v>
       </c>
@@ -1551,12 +1548,12 @@
       <c r="A30" s="3">
         <v>45883</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="44"/>
       <c r="F30" s="4">
         <v>3</v>
       </c>
@@ -1573,12 +1570,12 @@
       <c r="A31" s="3">
         <v>45883</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="44"/>
       <c r="F31" s="4">
         <v>6</v>
       </c>
@@ -1595,12 +1592,12 @@
       <c r="A32" s="3">
         <v>45883</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="44"/>
       <c r="F32" s="4">
         <v>4</v>
       </c>
@@ -1617,12 +1614,12 @@
       <c r="A33" s="3">
         <v>45883</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="44"/>
       <c r="F33" s="4">
         <v>3</v>
       </c>
@@ -1639,12 +1636,12 @@
       <c r="A34" s="3">
         <v>45883</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="44"/>
       <c r="F34" s="4">
         <v>5</v>
       </c>
@@ -1661,19 +1658,19 @@
       <c r="A35" s="21">
         <v>45883</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="22">
         <v>4</v>
       </c>
       <c r="G35" s="22">
         <v>2560</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="19">
         <f t="shared" si="0"/>
         <v>10240</v>
       </c>
@@ -1683,21 +1680,21 @@
       <c r="A36" s="30">
         <v>45883</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
       <c r="F36" s="34">
         <v>6</v>
       </c>
       <c r="G36" s="34">
         <v>1625</v>
       </c>
-      <c r="H36" s="35">
-        <f>F35*G35</f>
-        <v>10240</v>
+      <c r="H36" s="19">
+        <f t="shared" si="0"/>
+        <v>9750</v>
       </c>
       <c r="I36" s="31"/>
     </row>
@@ -1705,21 +1702,21 @@
       <c r="A37" s="30">
         <v>45885</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
       <c r="F37" s="34">
         <v>4</v>
       </c>
       <c r="G37" s="34">
         <v>1970</v>
       </c>
-      <c r="H37" s="35">
-        <f>F35*G35</f>
-        <v>10240</v>
+      <c r="H37" s="19">
+        <f t="shared" si="0"/>
+        <v>7880</v>
       </c>
       <c r="I37" s="31"/>
     </row>
@@ -1739,9 +1736,9 @@
       <c r="G38" s="34">
         <v>360</v>
       </c>
-      <c r="H38" s="35">
-        <f>F35*G35</f>
-        <v>10240</v>
+      <c r="H38" s="19">
+        <f t="shared" si="0"/>
+        <v>1800</v>
       </c>
       <c r="I38" s="31"/>
     </row>
@@ -1761,9 +1758,9 @@
       <c r="G39" s="34">
         <v>2350</v>
       </c>
-      <c r="H39" s="35">
-        <f>F35*G35</f>
-        <v>10240</v>
+      <c r="H39" s="19">
+        <f t="shared" si="0"/>
+        <v>7050</v>
       </c>
       <c r="I39" s="31"/>
     </row>
@@ -1783,9 +1780,9 @@
       <c r="G40" s="34">
         <v>645</v>
       </c>
-      <c r="H40" s="35">
-        <f>F35*G35</f>
-        <v>10240</v>
+      <c r="H40" s="19">
+        <f t="shared" si="0"/>
+        <v>14190</v>
       </c>
       <c r="I40" s="31"/>
     </row>
@@ -1805,9 +1802,9 @@
       <c r="G41" s="34">
         <v>1580</v>
       </c>
-      <c r="H41" s="35">
-        <f>F35*G35</f>
-        <v>10240</v>
+      <c r="H41" s="19">
+        <f t="shared" si="0"/>
+        <v>6320</v>
       </c>
       <c r="I41" s="31"/>
     </row>
@@ -1827,9 +1824,9 @@
       <c r="G42" s="34">
         <v>1946</v>
       </c>
-      <c r="H42" s="35">
-        <f>F35*G35</f>
-        <v>10240</v>
+      <c r="H42" s="19">
+        <f t="shared" si="0"/>
+        <v>9730</v>
       </c>
       <c r="I42" s="31"/>
     </row>
@@ -1849,9 +1846,9 @@
       <c r="G43" s="34">
         <v>460</v>
       </c>
-      <c r="H43" s="35">
-        <f>F35*G35</f>
-        <v>10240</v>
+      <c r="H43" s="19">
+        <f t="shared" si="0"/>
+        <v>10120</v>
       </c>
       <c r="I43" s="31"/>
     </row>
@@ -1871,9 +1868,9 @@
       <c r="G44" s="34">
         <v>1150</v>
       </c>
-      <c r="H44" s="35">
-        <f>F35*G35</f>
-        <v>10240</v>
+      <c r="H44" s="19">
+        <f t="shared" si="0"/>
+        <v>5750</v>
       </c>
       <c r="I44" s="31"/>
     </row>
@@ -1893,9 +1890,9 @@
       <c r="G45" s="34">
         <v>2730</v>
       </c>
-      <c r="H45" s="35">
-        <f>F35*G35</f>
-        <v>10240</v>
+      <c r="H45" s="19">
+        <f t="shared" si="0"/>
+        <v>8190</v>
       </c>
       <c r="I45" s="31"/>
     </row>
@@ -1915,9 +1912,9 @@
       <c r="G46" s="34">
         <v>720</v>
       </c>
-      <c r="H46" s="35">
-        <f>F35*G35</f>
-        <v>10240</v>
+      <c r="H46" s="19">
+        <f t="shared" si="0"/>
+        <v>2160</v>
       </c>
       <c r="I46" s="31"/>
     </row>
@@ -1937,9 +1934,9 @@
       <c r="G47" s="34">
         <v>870</v>
       </c>
-      <c r="H47" s="35">
-        <f>F35*G35</f>
-        <v>10240</v>
+      <c r="H47" s="19">
+        <f t="shared" si="0"/>
+        <v>4350</v>
       </c>
       <c r="I47" s="31"/>
     </row>
@@ -1959,9 +1956,9 @@
       <c r="G48" s="34">
         <v>900</v>
       </c>
-      <c r="H48" s="35">
-        <f>F35*G35</f>
-        <v>10240</v>
+      <c r="H48" s="19">
+        <f t="shared" si="0"/>
+        <v>4500</v>
       </c>
       <c r="I48" s="31"/>
     </row>
@@ -1981,9 +1978,9 @@
       <c r="G49" s="34">
         <v>1580</v>
       </c>
-      <c r="H49" s="35">
-        <f>F35*G35</f>
-        <v>10240</v>
+      <c r="H49" s="19">
+        <f t="shared" si="0"/>
+        <v>7900</v>
       </c>
       <c r="I49" s="31"/>
     </row>
@@ -2003,9 +2000,9 @@
       <c r="G50" s="34">
         <v>1946</v>
       </c>
-      <c r="H50" s="35">
-        <f>F35*G35</f>
-        <v>10240</v>
+      <c r="H50" s="19">
+        <f t="shared" si="0"/>
+        <v>11676</v>
       </c>
       <c r="I50" s="31"/>
     </row>
@@ -2014,14 +2011,14 @@
       <c r="B51" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="37"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="36"/>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
       <c r="H51" s="17">
         <f>SUM(H20:H50)</f>
-        <v>248420</v>
+        <v>206186</v>
       </c>
       <c r="I51" s="26"/>
     </row>
@@ -2037,7 +2034,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="5">
         <f>INT(H51*0.1)</f>
-        <v>24842</v>
+        <v>20618</v>
       </c>
       <c r="I52" s="24"/>
     </row>
@@ -2073,6 +2070,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:E37"/>
@@ -2089,20 +2097,9 @@
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:H54" xr:uid="{5E5AC63D-54C4-244E-88F7-5256B3E67574}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -2192,41 +2189,41 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43" t="s">
+      <c r="D16" s="45"/>
+      <c r="E16" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43" t="s">
+      <c r="F16" s="45"/>
+      <c r="G16" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="43"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48">
         <f>H36</f>
         <v>0</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="41">
+      <c r="F17" s="48"/>
+      <c r="G17" s="43">
         <f>H37</f>
         <v>0</v>
       </c>
-      <c r="H17" s="41"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="20">
         <f>SUM(E17:H17)</f>
         <v>0</v>
@@ -2236,12 +2233,12 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2257,10 +2254,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="19">
@@ -2271,10 +2268,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="19">
@@ -2285,10 +2282,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="19">
@@ -2299,10 +2296,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="19">
@@ -2313,10 +2310,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="19">
@@ -2327,10 +2324,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="19">
@@ -2341,10 +2338,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="19">
@@ -2355,10 +2352,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="19">
@@ -2369,10 +2366,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="19">
@@ -2383,10 +2380,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="19">
@@ -2397,10 +2394,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="19">
@@ -2411,10 +2408,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="19">
@@ -2425,10 +2422,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="19">
@@ -2439,10 +2436,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="19">
@@ -2453,10 +2450,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="19">
@@ -2467,10 +2464,10 @@
     </row>
     <row r="35" spans="1:9" ht="19" thickBot="1">
       <c r="A35" s="21"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="23">
@@ -2481,12 +2478,12 @@
     </row>
     <row r="36" spans="1:9" ht="19" thickTop="1">
       <c r="A36" s="15"/>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="17">
@@ -2497,12 +2494,12 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3"/>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="5">
@@ -2543,14 +2540,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B19:E19"/>
@@ -2561,15 +2559,14 @@
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">

--- a/請求書.xlsx
+++ b/請求書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h_ikuma/Desktop/cursor_excel_py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C68044C-D739-8949-9769-711713E3A606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC66C04-2407-2B46-B44A-E368CE06B131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15040" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{39A39F85-0233-405B-A3C0-3849DABDD8BB}"/>
+    <workbookView xWindow="15040" yWindow="500" windowWidth="30080" windowHeight="33340" activeTab="1" xr2:uid="{39A39F85-0233-405B-A3C0-3849DABDD8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書(サンプル)" sheetId="10" r:id="rId1"/>
@@ -307,149 +307,149 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>御請求書</t>
+  </si>
+  <si>
+    <t>980-0011</t>
+  </si>
+  <si>
+    <t>宮城県仙台市青葉区上杉11-11</t>
+  </si>
+  <si>
+    <t>株式会社●●●●</t>
+  </si>
+  <si>
+    <t>米谷サービス</t>
+  </si>
+  <si>
+    <t>〒104-00xx</t>
+  </si>
+  <si>
+    <t>○○県○○○○市○○○○ x-x</t>
+  </si>
+  <si>
+    <t>担当：</t>
+  </si>
+  <si>
+    <t>イクマ　ヒロユキ</t>
+  </si>
+  <si>
+    <t>電話：</t>
+  </si>
+  <si>
+    <t>適格請求書発行業者登録番号</t>
+  </si>
+  <si>
+    <t>下記のとおり御請求申し上げます。</t>
+  </si>
+  <si>
+    <t>Tx-xxxx-xxxx-xxxx</t>
+  </si>
+  <si>
+    <t>前回ご請求額</t>
+  </si>
+  <si>
+    <t>今回ご入金額</t>
+  </si>
+  <si>
+    <t>今回お買上額</t>
+  </si>
+  <si>
+    <t>消費税</t>
+  </si>
+  <si>
+    <t>今回ご請求額</t>
+  </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>単価</t>
+  </si>
+  <si>
+    <t>金額</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>食彩鍋26cm</t>
+  </si>
+  <si>
+    <t>P両手天ぷら20cm</t>
+  </si>
+  <si>
+    <t>食彩鍋22cm</t>
+  </si>
+  <si>
+    <t>Pオイルポット1.2L</t>
+  </si>
+  <si>
+    <t>Qフライパン24cm</t>
+  </si>
+  <si>
+    <t>P蓋付き片手天ぷら鍋16cm</t>
+  </si>
+  <si>
+    <t>Pフライパン24cm</t>
+  </si>
+  <si>
+    <t>P温度計付天ぷら鍋22cm</t>
+  </si>
+  <si>
+    <t>SPフライパン26cm</t>
+  </si>
+  <si>
+    <t>フライパン24cm</t>
+  </si>
+  <si>
+    <t>テンプラナベ24cmF</t>
+  </si>
+  <si>
+    <t>フライパン28cm</t>
+  </si>
+  <si>
+    <t>食彩鍋24cm</t>
+  </si>
+  <si>
+    <t>いため鍋28cm</t>
+  </si>
+  <si>
+    <t>フライパン26cm</t>
+  </si>
+  <si>
+    <t>PPフライパン26cm</t>
+  </si>
+  <si>
+    <t>SP玉子焼中</t>
+  </si>
+  <si>
+    <t>鉄厚板揚げ鍋33cm</t>
+  </si>
+  <si>
+    <t>半月天ぷら網33cm</t>
+  </si>
+  <si>
     <t xml:space="preserve">課税対象額(10%)			</t>
+  </si>
+  <si>
+    <t>課税対象消費税額(10%)</t>
+  </si>
+  <si>
+    <t>●●銀行 ■■営業部 普通 xxxxxx</t>
+  </si>
+  <si>
+    <t>※振込手数料につきましては御社にてご負担をお願いいたします。</t>
+  </si>
+  <si>
+    <t>課税対象額(10%)</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>御請求書</t>
-  </si>
-  <si>
-    <t>980-0011</t>
-  </si>
-  <si>
-    <t>宮城県仙台市青葉区上杉11-11</t>
-  </si>
-  <si>
-    <t>株式会社●●●●</t>
-  </si>
-  <si>
-    <t>米谷サービス</t>
-  </si>
-  <si>
-    <t>〒104-00xx</t>
-  </si>
-  <si>
-    <t>○○県○○○○市○○○○ x-x</t>
-  </si>
-  <si>
-    <t>担当：</t>
-  </si>
-  <si>
-    <t>イクマ　ヒロユキ</t>
-  </si>
-  <si>
-    <t>電話：</t>
-  </si>
-  <si>
-    <t>適格請求書発行業者登録番号</t>
-  </si>
-  <si>
-    <t>下記のとおり御請求申し上げます。</t>
-  </si>
-  <si>
-    <t>Tx-xxxx-xxxx-xxxx</t>
-  </si>
-  <si>
-    <t>前回ご請求額</t>
-  </si>
-  <si>
-    <t>今回ご入金額</t>
-  </si>
-  <si>
-    <t>今回お買上額</t>
-  </si>
-  <si>
-    <t>消費税</t>
-  </si>
-  <si>
-    <t>今回ご請求額</t>
-  </si>
-  <si>
-    <t>日付</t>
-  </si>
-  <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>単価</t>
-  </si>
-  <si>
-    <t>金額</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>食彩鍋26cm</t>
-  </si>
-  <si>
-    <t>P両手天ぷら20cm</t>
-  </si>
-  <si>
-    <t>食彩鍋22cm</t>
-  </si>
-  <si>
-    <t>Pオイルポット1.2L</t>
-  </si>
-  <si>
-    <t>Qフライパン24cm</t>
-  </si>
-  <si>
-    <t>P蓋付き片手天ぷら鍋16cm</t>
-  </si>
-  <si>
-    <t>Pフライパン24cm</t>
-  </si>
-  <si>
-    <t>P温度計付天ぷら鍋22cm</t>
-  </si>
-  <si>
-    <t>SPフライパン26cm</t>
-  </si>
-  <si>
-    <t>フライパン24cm</t>
-  </si>
-  <si>
-    <t>テンプラナベ24cmF</t>
-  </si>
-  <si>
-    <t>フライパン28cm</t>
-  </si>
-  <si>
-    <t>食彩鍋24cm</t>
-  </si>
-  <si>
-    <t>いため鍋28cm</t>
-  </si>
-  <si>
-    <t>フライパン26cm</t>
-  </si>
-  <si>
-    <t>PPフライパン26cm</t>
-  </si>
-  <si>
-    <t>SP玉子焼中</t>
-  </si>
-  <si>
-    <t>鉄厚板揚げ鍋33cm</t>
-  </si>
-  <si>
-    <t>半月天ぷら網33cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">課税対象額(10%)			</t>
-  </si>
-  <si>
-    <t>課税対象消費税額(10%)</t>
-  </si>
-  <si>
-    <t>●●銀行 ■■営業部 普通 xxxxxx</t>
-  </si>
-  <si>
-    <t>※振込手数料につきましては御社にてご負担をお願いいたします。</t>
   </si>
 </sst>
 </file>
@@ -812,6 +812,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -825,14 +830,9 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1181,7 +1181,7 @@
   </sheetPr>
   <dimension ref="A2:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
@@ -1193,7 +1193,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1202,28 +1202,28 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
         <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="H7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1233,15 +1233,15 @@
     </row>
     <row r="10" spans="1:9">
       <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
         <v>34</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="H11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -1249,53 +1249,53 @@
     </row>
     <row r="13" spans="1:9">
       <c r="H13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
         <v>38</v>
       </c>
-      <c r="H14" t="s">
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="47" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="45" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45" t="s">
+      <c r="D16" s="39"/>
+      <c r="E16" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45" t="s">
+      <c r="F16" s="39"/>
+      <c r="G16" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45" t="s">
+      <c r="H16" s="39"/>
+      <c r="I16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="6" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="48"/>
-      <c r="D17" s="44"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="48">
         <f>H51</f>
         <v>206186</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="43">
+      <c r="F17" s="39"/>
+      <c r="G17" s="46">
         <f>H52</f>
         <v>20618</v>
       </c>
-      <c r="H17" s="44"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="20">
         <f>SUM(E17:H17)</f>
         <v>226804</v>
@@ -1303,37 +1303,37 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>45870</v>
       </c>
-      <c r="B20" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="44"/>
+      <c r="B20" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="4">
         <v>3</v>
       </c>
@@ -1350,12 +1350,12 @@
       <c r="A21" s="3">
         <v>45872</v>
       </c>
-      <c r="B21" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="44"/>
+      <c r="B21" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="4">
         <v>3</v>
       </c>
@@ -1372,12 +1372,12 @@
       <c r="A22" s="3">
         <v>45872</v>
       </c>
-      <c r="B22" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="44"/>
+      <c r="B22" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="4">
         <v>3</v>
       </c>
@@ -1394,12 +1394,12 @@
       <c r="A23" s="3">
         <v>45876</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="44"/>
+      <c r="B23" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="4">
         <v>5</v>
       </c>
@@ -1416,12 +1416,12 @@
       <c r="A24" s="3">
         <v>45876</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="44"/>
+      <c r="B24" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="4">
         <v>5</v>
       </c>
@@ -1438,12 +1438,12 @@
       <c r="A25" s="3">
         <v>45876</v>
       </c>
-      <c r="B25" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="44"/>
+      <c r="B25" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="4">
         <v>3</v>
       </c>
@@ -1460,12 +1460,12 @@
       <c r="A26" s="3">
         <v>45876</v>
       </c>
-      <c r="B26" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="44"/>
+      <c r="B26" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="4">
         <v>3</v>
       </c>
@@ -1482,12 +1482,12 @@
       <c r="A27" s="3">
         <v>45878</v>
       </c>
-      <c r="B27" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="44"/>
+      <c r="B27" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="4">
         <v>3</v>
       </c>
@@ -1504,12 +1504,12 @@
       <c r="A28" s="3">
         <v>45878</v>
       </c>
-      <c r="B28" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="44"/>
+      <c r="B28" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="4">
         <v>5</v>
       </c>
@@ -1526,12 +1526,12 @@
       <c r="A29" s="3">
         <v>45883</v>
       </c>
-      <c r="B29" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="44"/>
+      <c r="B29" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="4">
         <v>5</v>
       </c>
@@ -1548,12 +1548,12 @@
       <c r="A30" s="3">
         <v>45883</v>
       </c>
-      <c r="B30" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="44"/>
+      <c r="B30" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="4">
         <v>3</v>
       </c>
@@ -1570,12 +1570,12 @@
       <c r="A31" s="3">
         <v>45883</v>
       </c>
-      <c r="B31" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="44"/>
+      <c r="B31" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="4">
         <v>6</v>
       </c>
@@ -1592,12 +1592,12 @@
       <c r="A32" s="3">
         <v>45883</v>
       </c>
-      <c r="B32" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="44"/>
+      <c r="B32" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="4">
         <v>4</v>
       </c>
@@ -1614,12 +1614,12 @@
       <c r="A33" s="3">
         <v>45883</v>
       </c>
-      <c r="B33" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="44"/>
+      <c r="B33" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="4">
         <v>3</v>
       </c>
@@ -1636,12 +1636,12 @@
       <c r="A34" s="3">
         <v>45883</v>
       </c>
-      <c r="B34" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="44"/>
+      <c r="B34" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
       <c r="F34" s="4">
         <v>5</v>
       </c>
@@ -1658,12 +1658,12 @@
       <c r="A35" s="21">
         <v>45883</v>
       </c>
-      <c r="B35" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
+      <c r="B35" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
       <c r="F35" s="22">
         <v>4</v>
       </c>
@@ -1680,12 +1680,12 @@
       <c r="A36" s="30">
         <v>45883</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42"/>
+      <c r="B36" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="45"/>
       <c r="F36" s="34">
         <v>6</v>
       </c>
@@ -1702,12 +1702,12 @@
       <c r="A37" s="30">
         <v>45885</v>
       </c>
-      <c r="B37" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42"/>
+      <c r="B37" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="34">
         <v>4</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>45886</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
@@ -1747,7 +1747,7 @@
         <v>45886</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
@@ -1769,7 +1769,7 @@
         <v>45887</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
@@ -1791,7 +1791,7 @@
         <v>45893</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
@@ -1813,7 +1813,7 @@
         <v>45893</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
@@ -1835,7 +1835,7 @@
         <v>45895</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
@@ -1857,7 +1857,7 @@
         <v>45897</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
@@ -1879,7 +1879,7 @@
         <v>45897</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
@@ -1901,7 +1901,7 @@
         <v>45897</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
@@ -1923,7 +1923,7 @@
         <v>45900</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="32"/>
       <c r="D47" s="32"/>
@@ -1945,7 +1945,7 @@
         <v>45900</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
@@ -1967,7 +1967,7 @@
         <v>45900</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="32"/>
       <c r="D49" s="32"/>
@@ -1989,7 +1989,7 @@
         <v>45900</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>
@@ -2009,7 +2009,7 @@
     <row r="51" spans="1:9" ht="19" thickTop="1">
       <c r="A51" s="15"/>
       <c r="B51" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
@@ -2025,7 +2025,7 @@
     <row r="52" spans="1:9">
       <c r="A52" s="3"/>
       <c r="B52" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I55" s="11"/>
     </row>
@@ -2070,17 +2070,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:E37"/>
@@ -2097,6 +2086,17 @@
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -2119,7 +2119,7 @@
   </sheetPr>
   <dimension ref="A2:I41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
@@ -2189,29 +2189,29 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45" t="s">
+      <c r="F16" s="47"/>
+      <c r="G16" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="45"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48">
@@ -2219,11 +2219,11 @@
         <v>0</v>
       </c>
       <c r="F17" s="48"/>
-      <c r="G17" s="43">
+      <c r="G17" s="46">
         <f>H37</f>
         <v>0</v>
       </c>
-      <c r="H17" s="43"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="20">
         <f>SUM(E17:H17)</f>
         <v>0</v>
@@ -2233,12 +2233,12 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="19">
@@ -2268,10 +2268,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="19">
@@ -2282,10 +2282,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="19">
@@ -2296,10 +2296,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="19">
@@ -2310,10 +2310,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="19">
@@ -2324,10 +2324,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="19">
@@ -2338,10 +2338,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="19">
@@ -2352,10 +2352,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="19">
@@ -2366,10 +2366,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="19">
@@ -2380,10 +2380,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="19">
@@ -2394,10 +2394,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="19">
@@ -2408,10 +2408,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="19">
@@ -2422,10 +2422,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="19">
@@ -2436,10 +2436,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="19">
@@ -2450,10 +2450,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="19">
@@ -2464,10 +2464,10 @@
     </row>
     <row r="35" spans="1:9" ht="19" thickBot="1">
       <c r="A35" s="21"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="23">
@@ -2479,7 +2479,7 @@
     <row r="36" spans="1:9" ht="19" thickTop="1">
       <c r="A36" s="15"/>
       <c r="B36" s="49" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="49"/>
@@ -2494,12 +2494,12 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3"/>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="5">
@@ -2540,15 +2540,14 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B19:E19"/>
@@ -2559,14 +2558,15 @@
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
